--- a/LogBooks/Tabelle/Tabella_parametri.xlsx
+++ b/LogBooks/Tabelle/Tabella_parametri.xlsx
@@ -421,7 +421,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,11 +577,44 @@
       </c>
       <c r="C6">
         <f>(F6+G6*L6)/B6</f>
-        <v>0</v>
+        <v>55.454999999999998</v>
       </c>
       <c r="D6">
         <f>SQRT(G6^2+((L6*I6)^2+(M6*H6)^2)^2)/B6</f>
-        <v>0</v>
+        <v>4.2008467468903756</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>87.5</v>
+      </c>
+      <c r="G6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H6">
+        <v>-2.96</v>
+      </c>
+      <c r="I6">
+        <v>0.38</v>
+      </c>
+      <c r="J6">
+        <v>24.99</v>
+      </c>
+      <c r="K6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L6">
+        <v>5.56</v>
+      </c>
+      <c r="M6">
+        <v>0.4</v>
+      </c>
+      <c r="N6">
+        <v>-225</v>
+      </c>
+      <c r="O6">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">

--- a/LogBooks/Tabelle/Tabella_parametri.xlsx
+++ b/LogBooks/Tabelle/Tabella_parametri.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>tabella riassuntiva dei valori dei parametri</t>
   </si>
@@ -96,12 +96,30 @@
   <si>
     <t>eP[4]</t>
   </si>
+  <si>
+    <t>IBiasP1</t>
+  </si>
+  <si>
+    <t>IBiasP2</t>
+  </si>
+  <si>
+    <t>Vth [DAC]</t>
+  </si>
+  <si>
+    <t>set completo</t>
+  </si>
+  <si>
+    <t>set da completare</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +133,38 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,8 +179,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,227 +468,582 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>17</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>6</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
       <c r="B4">
         <v>2.4</v>
       </c>
       <c r="C4">
-        <f>(F4+H4*L4)/B4</f>
+        <v>60</v>
+      </c>
+      <c r="D4" s="1">
+        <f>(I4+K4*O4)/B4</f>
         <v>27.59866666666667</v>
       </c>
-      <c r="D4">
-        <f>SQRT(G4^2+((L4*I4)^2+(M4*H4)^2)^2)/B4</f>
+      <c r="E4" s="1">
+        <f>SQRT(J4^2+((O4*L4)^2+(P4*K4)^2)^2)/B4</f>
         <v>2.3153447394617204</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>75</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>150</v>
+      </c>
+      <c r="I4">
         <v>81.400000000000006</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>3.9</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>-1.62</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>0.21</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>24.07</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>0.16</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>9.36</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>0.19</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>-332.5</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>7.4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5">
+    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5">
         <v>2.4</v>
       </c>
-      <c r="C5">
-        <f>(F5+H5*L5)/B5</f>
-        <v>20.161375</v>
-      </c>
-      <c r="D5">
-        <f xml:space="preserve"> SQRT(G5^2+((L5*I5)^2+(H5*M5)^2))/B5</f>
-        <v>4.2626126339387085</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="5">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6">
+        <f>(I5+K5*O5)/B5</f>
+        <v>664.375</v>
+      </c>
+      <c r="E5" s="6">
+        <f>SQRT(J5^2+((O5*L5)^2+(P5*K5)^2)^2)/B5</f>
+        <v>27.906741739971295</v>
+      </c>
+      <c r="F5" s="5">
         <v>160</v>
       </c>
-      <c r="F5">
-        <v>23.5</v>
-      </c>
-      <c r="G5">
-        <v>6.6</v>
-      </c>
-      <c r="H5">
-        <v>1.91</v>
-      </c>
-      <c r="I5">
-        <v>0.59</v>
-      </c>
-      <c r="J5">
-        <v>14.5</v>
-      </c>
-      <c r="K5">
-        <v>2.1</v>
-      </c>
-      <c r="L5">
-        <v>13.03</v>
-      </c>
-      <c r="M5">
-        <v>0.74</v>
-      </c>
-      <c r="N5">
-        <v>-227</v>
-      </c>
-      <c r="O5">
+      <c r="G5" s="5">
+        <v>100</v>
+      </c>
+      <c r="H5" s="5">
+        <v>150</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2471</v>
+      </c>
+      <c r="J5" s="5">
+        <v>15</v>
+      </c>
+      <c r="K5" s="5">
+        <v>-25</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="M5" s="5">
+        <v>24.99</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="O5" s="5">
+        <v>35.06</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>-3612</v>
+      </c>
+      <c r="R5" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6">
+        <f>(I6+K6*O6)/B6</f>
+        <v>54.83250000000001</v>
+      </c>
+      <c r="E6" s="6">
+        <f xml:space="preserve"> SQRT(J6^2+((O6*L6)^2+(K6*P6)^2))/B6</f>
+        <v>10.73380508959376</v>
+      </c>
+      <c r="F6" s="5">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5">
+        <v>100</v>
+      </c>
+      <c r="H6" s="5">
+        <v>150</v>
+      </c>
+      <c r="I6" s="5">
+        <v>174.3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>24.73</v>
+      </c>
+      <c r="K6" s="5">
+        <v>-6.6</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M6" s="5">
+        <v>23.3</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="O6" s="5">
+        <v>6.47</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>-340</v>
+      </c>
+      <c r="R6" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7">
+        <v>2.4</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1">
+        <f>(I7+K7*O7)/B7</f>
+        <v>29.601000000000003</v>
+      </c>
+      <c r="E7" s="1">
+        <f xml:space="preserve"> SQRT(J7^2+((O7*L7)^2+(K7*P7)^2))/B7</f>
+        <v>3.562579917232267</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+      <c r="I7">
+        <v>87.5</v>
+      </c>
+      <c r="J7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K7">
+        <v>-2.96</v>
+      </c>
+      <c r="L7">
+        <v>0.38</v>
+      </c>
+      <c r="M7">
+        <v>24.99</v>
+      </c>
+      <c r="N7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O7">
+        <v>5.56</v>
+      </c>
+      <c r="P7">
+        <v>0.4</v>
+      </c>
+      <c r="Q7">
+        <v>-225</v>
+      </c>
+      <c r="R7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8">
+        <v>2.4</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <f>(I8+J8*O8)/B8</f>
+        <v>193.18958333333336</v>
+      </c>
+      <c r="E8" s="1">
+        <f>SQRT(J8^2+((O8*L8)^2+(P8*K8)^2)^2)/B8</f>
+        <v>0.77974109447281725</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>150</v>
+      </c>
+      <c r="I8">
+        <v>461.6</v>
+      </c>
+      <c r="J8">
+        <v>1.5</v>
+      </c>
+      <c r="K8">
+        <v>-14.88</v>
+      </c>
+      <c r="L8">
+        <v>0.7</v>
+      </c>
+      <c r="M8">
+        <v>13.53</v>
+      </c>
+      <c r="N8">
+        <v>0.3</v>
+      </c>
+      <c r="O8">
+        <v>1.37</v>
+      </c>
+      <c r="P8">
+        <v>0.03</v>
+      </c>
+      <c r="Q8">
+        <v>-358.6</v>
+      </c>
+      <c r="R8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9">
+        <v>2.4</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9" si="0">(I9+J9*O9)/B9</f>
+        <v>31.638333333333335</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ref="E9" si="1">SQRT(J9^2+((O9*L9)^2+(P9*K9)^2)^2)/B9</f>
+        <v>0.61819746455053948</v>
+      </c>
+      <c r="F9">
+        <v>75</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>150</v>
+      </c>
+      <c r="I9">
+        <v>59.72</v>
+      </c>
+      <c r="J9">
+        <v>1.4</v>
+      </c>
+      <c r="K9">
+        <v>1.84</v>
+      </c>
+      <c r="L9">
+        <v>0.06</v>
+      </c>
+      <c r="M9">
+        <v>16.3</v>
+      </c>
+      <c r="N9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O9">
+        <v>11.58</v>
+      </c>
+      <c r="P9">
+        <v>0.05</v>
+      </c>
+      <c r="Q9">
+        <v>-239.7</v>
+      </c>
+      <c r="R9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10" si="2">(I10+J10*O10)/B10</f>
+        <v>325.01575000000003</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ref="E10" si="3">SQRT(J10^2+((O10*L10)^2+(P10*K10)^2)^2)/B10</f>
+        <v>52.650942298130992</v>
+      </c>
+      <c r="F10">
+        <v>75</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>150</v>
+      </c>
+      <c r="I10">
+        <v>1234</v>
+      </c>
+      <c r="J10">
+        <v>5.7</v>
+      </c>
+      <c r="K10">
+        <v>-22.15</v>
+      </c>
+      <c r="L10">
+        <v>0.68</v>
+      </c>
+      <c r="M10">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.2</v>
+      </c>
+      <c r="O10">
+        <v>11.59</v>
+      </c>
+      <c r="P10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q10">
+        <v>-1519</v>
+      </c>
+      <c r="R10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11">
+        <v>2.4</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ref="D8:D12" si="4">(I11+J11*O11)/B11</f>
+        <v>244.70416666666665</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ref="E8:E12" si="5">SQRT(J11^2+((O11*L11)^2+(P11*K11)^2)^2)/B11</f>
+        <v>49.577634393829975</v>
+      </c>
+      <c r="F11">
+        <v>75</v>
+      </c>
+      <c r="G11">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6">
+      <c r="H11">
+        <v>75</v>
+      </c>
+      <c r="I11">
+        <v>310</v>
+      </c>
+      <c r="J11">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>-6.82</v>
+      </c>
+      <c r="L11">
+        <v>0.98</v>
+      </c>
+      <c r="M11">
+        <v>22.5</v>
+      </c>
+      <c r="N11">
+        <v>1.4</v>
+      </c>
+      <c r="O11">
+        <v>10.27</v>
+      </c>
+      <c r="P11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q11">
+        <v>-638</v>
+      </c>
+      <c r="R11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B12">
         <v>2.4</v>
       </c>
-      <c r="C6">
-        <f>(F6+G6*L6)/B6</f>
-        <v>55.454999999999998</v>
-      </c>
-      <c r="D6">
-        <f>SQRT(G6^2+((L6*I6)^2+(M6*H6)^2)^2)/B6</f>
-        <v>4.2008467468903756</v>
-      </c>
-      <c r="E6">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>87.5</v>
-      </c>
-      <c r="G6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H6">
-        <v>-2.96</v>
-      </c>
-      <c r="I6">
-        <v>0.38</v>
-      </c>
-      <c r="J6">
-        <v>24.99</v>
-      </c>
-      <c r="K6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L6">
-        <v>5.56</v>
-      </c>
-      <c r="M6">
-        <v>0.4</v>
-      </c>
-      <c r="N6">
-        <v>-225</v>
-      </c>
-      <c r="O6">
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>75</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+      <c r="H12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>13</v>
       </c>
     </row>

--- a/LogBooks/Tabelle/Tabella_parametri.xlsx
+++ b/LogBooks/Tabelle/Tabella_parametri.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>tabella riassuntiva dei valori dei parametri</t>
   </si>
@@ -105,12 +105,6 @@
   <si>
     <t>Vth [DAC]</t>
   </si>
-  <si>
-    <t>set completo</t>
-  </si>
-  <si>
-    <t>set da completare</t>
-  </si>
 </sst>
 </file>
 
@@ -119,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,38 +127,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,15 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,20 +507,19 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
       <c r="B4">
         <v>2.4</v>
       </c>
       <c r="C4">
         <v>60</v>
       </c>
-      <c r="D4" s="1">
-        <f>(I4+K4*O4)/B4</f>
-        <v>27.59866666666667</v>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D5" si="0">(I4+K4*O4)/B4</f>
+        <v>531.30250000000001</v>
       </c>
       <c r="E4" s="1">
         <f>SQRT(J4^2+((O4*L4)^2+(P4*K4)^2)^2)/B4</f>
-        <v>2.3153447394617204</v>
+        <v>25.443243223876468</v>
       </c>
       <c r="F4">
         <v>75</v>
@@ -567,163 +531,162 @@
         <v>150</v>
       </c>
       <c r="I4">
-        <v>81.400000000000006</v>
+        <v>1590</v>
       </c>
       <c r="J4">
-        <v>3.9</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>-1.62</v>
+        <v>-24.99</v>
       </c>
       <c r="L4">
+        <v>0.37</v>
+      </c>
+      <c r="M4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="N4">
         <v>0.21</v>
       </c>
-      <c r="M4">
-        <v>24.07</v>
-      </c>
-      <c r="N4">
-        <v>0.16</v>
-      </c>
       <c r="O4">
-        <v>9.36</v>
+        <v>12.6</v>
       </c>
       <c r="P4">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="Q4">
-        <v>-332.5</v>
+        <v>-1910</v>
       </c>
       <c r="R4">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5"/>
+      <c r="B5" s="2">
         <v>2.4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>60</v>
       </c>
-      <c r="D5" s="6">
-        <f>(I5+K5*O5)/B5</f>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
         <v>664.375</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <f>SQRT(J5^2+((O5*L5)^2+(P5*K5)^2)^2)/B5</f>
         <v>27.906741739971295</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>160</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>100</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <v>150</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <v>2471</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <v>15</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="2">
         <v>-25</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="2">
         <v>0.23</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="2">
         <v>24.99</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="2">
         <v>0.18</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="2">
         <v>35.06</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="2">
         <v>0.02</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="2">
         <v>-3612</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="5">
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="B6" s="2">
         <v>2.4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>60</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <f>(I6+K6*O6)/B6</f>
         <v>54.83250000000001</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <f xml:space="preserve"> SQRT(J6^2+((O6*L6)^2+(K6*P6)^2))/B6</f>
         <v>10.73380508959376</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>40</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>100</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <v>150</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <v>174.3</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <v>24.73</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="2">
         <v>-6.6</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="2">
         <v>23.3</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="2">
         <v>0.05</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="2">
         <v>6.47</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="2">
         <v>0.18</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="2">
         <v>-340</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
       <c r="B7">
         <v>2.4</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <f>(I7+K7*O7)/B7</f>
-        <v>29.601000000000003</v>
-      </c>
-      <c r="E7" s="1">
+        <v>51.025000000000006</v>
+      </c>
+      <c r="E7" s="3">
         <f xml:space="preserve"> SQRT(J7^2+((O7*L7)^2+(K7*P7)^2))/B7</f>
-        <v>3.562579917232267</v>
+        <v>12.902769109553363</v>
       </c>
       <c r="F7">
         <v>40</v>
@@ -735,38 +698,37 @@
         <v>150</v>
       </c>
       <c r="I7">
-        <v>87.5</v>
+        <v>159</v>
       </c>
       <c r="J7">
-        <v>8.1999999999999993</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>-2.96</v>
+        <v>-5.8</v>
       </c>
       <c r="L7">
-        <v>0.38</v>
+        <v>1.2</v>
       </c>
       <c r="M7">
-        <v>24.99</v>
+        <v>22.74</v>
       </c>
       <c r="N7">
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="O7">
-        <v>5.56</v>
+        <v>6.3</v>
       </c>
       <c r="P7">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="Q7">
-        <v>-225</v>
+        <v>-315</v>
       </c>
       <c r="R7">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
       <c r="B8">
         <v>2.4</v>
       </c>
@@ -822,7 +784,6 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
       <c r="B9">
         <v>2.4</v>
       </c>
@@ -830,12 +791,12 @@
         <v>90</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9" si="0">(I9+J9*O9)/B9</f>
-        <v>31.638333333333335</v>
+        <f>(I9+J9*O9)/B9</f>
+        <v>89.341666666666669</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" ref="E9" si="1">SQRT(J9^2+((O9*L9)^2+(P9*K9)^2)^2)/B9</f>
-        <v>0.61819746455053948</v>
+        <f>SQRT(J9^2+((O9*L9)^2+(P9*K9)^2)^2)/B9</f>
+        <v>13.971726440212764</v>
       </c>
       <c r="F9">
         <v>75</v>
@@ -847,38 +808,37 @@
         <v>150</v>
       </c>
       <c r="I9">
-        <v>59.72</v>
+        <v>31</v>
       </c>
       <c r="J9">
-        <v>1.4</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>1.84</v>
+        <v>2.92</v>
       </c>
       <c r="L9">
-        <v>0.06</v>
+        <v>0.44</v>
       </c>
       <c r="M9">
-        <v>16.3</v>
+        <v>15.1</v>
       </c>
       <c r="N9">
-        <v>0.14000000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="O9">
-        <v>11.58</v>
+        <v>10.19</v>
       </c>
       <c r="P9">
-        <v>0.05</v>
+        <v>0.98</v>
       </c>
       <c r="Q9">
-        <v>-239.7</v>
+        <v>-147</v>
       </c>
       <c r="R9">
-        <v>2.2000000000000002</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
       <c r="B10">
         <v>4</v>
       </c>
@@ -886,11 +846,11 @@
         <v>60</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="D10" si="2">(I10+J10*O10)/B10</f>
+        <f t="shared" ref="D10" si="1">(I10+J10*O10)/B10</f>
         <v>325.01575000000003</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10" si="3">SQRT(J10^2+((O10*L10)^2+(P10*K10)^2)^2)/B10</f>
+        <f t="shared" ref="E10" si="2">SQRT(J10^2+((O10*L10)^2+(P10*K10)^2)^2)/B10</f>
         <v>52.650942298130992</v>
       </c>
       <c r="F10">
@@ -934,7 +894,6 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
       <c r="B11">
         <v>2.4</v>
       </c>
@@ -942,11 +901,11 @@
         <v>60</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D8:D12" si="4">(I11+J11*O11)/B11</f>
+        <f t="shared" ref="D11:D12" si="3">(I11+J11*O11)/B11</f>
         <v>244.70416666666665</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ref="E8:E12" si="5">SQRT(J11^2+((O11*L11)^2+(P11*K11)^2)^2)/B11</f>
+        <f t="shared" ref="E11:E12" si="4">SQRT(J11^2+((O11*L11)^2+(P11*K11)^2)^2)/B11</f>
         <v>49.577634393829975</v>
       </c>
       <c r="F11">
@@ -997,13 +956,13 @@
         <v>60</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E12" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="F12">
         <v>75</v>
       </c>
@@ -1014,35 +973,27 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>

--- a/LogBooks/Tabelle/Tabella_parametri.xlsx
+++ b/LogBooks/Tabelle/Tabella_parametri.xlsx
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,11 +957,11 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>133.50916666666669</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.4380541394259496</v>
       </c>
       <c r="F12">
         <v>75</v>
@@ -971,6 +971,36 @@
       </c>
       <c r="H12">
         <v>300</v>
+      </c>
+      <c r="I12">
+        <v>259</v>
+      </c>
+      <c r="J12">
+        <v>5.8</v>
+      </c>
+      <c r="K12">
+        <v>-8.7100000000000009</v>
+      </c>
+      <c r="L12">
+        <v>0.15</v>
+      </c>
+      <c r="M12">
+        <v>21.09</v>
+      </c>
+      <c r="N12">
+        <v>0.31</v>
+      </c>
+      <c r="O12">
+        <v>10.59</v>
+      </c>
+      <c r="P12">
+        <v>0.21</v>
+      </c>
+      <c r="Q12">
+        <v>-493</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">

--- a/LogBooks/Tabelle/Tabella_parametri.xlsx
+++ b/LogBooks/Tabelle/Tabella_parametri.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Riassunto" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>tabella riassuntiva dei valori dei parametri</t>
   </si>
@@ -33,9 +34,6 @@
   </si>
   <si>
     <t>Vth [mV]</t>
-  </si>
-  <si>
-    <t>Ibiasf [DAC]</t>
   </si>
   <si>
     <t>P[1]</t>
@@ -97,13 +95,58 @@
     <t>eP[4]</t>
   </si>
   <si>
-    <t>IBiasP1</t>
-  </si>
-  <si>
-    <t>IBiasP2</t>
-  </si>
-  <si>
     <t>Vth [DAC]</t>
+  </si>
+  <si>
+    <t>impostato</t>
+  </si>
+  <si>
+    <t>misurati</t>
+  </si>
+  <si>
+    <t>derivati</t>
+  </si>
+  <si>
+    <t>Ifeed [DAC]</t>
+  </si>
+  <si>
+    <t>Ifeed [nA]</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>2*Ifeed</t>
+  </si>
+  <si>
+    <t>Ifeed/2</t>
+  </si>
+  <si>
+    <t>Ifeed/4</t>
+  </si>
+  <si>
+    <t>Vth*1.5</t>
+  </si>
+  <si>
+    <t>cambio Cf</t>
+  </si>
+  <si>
+    <t>IBiasP*2</t>
+  </si>
+  <si>
+    <t>IBiasP/2</t>
+  </si>
+  <si>
+    <t>IBiasP1 [DAC]</t>
+  </si>
+  <si>
+    <t>IBiasP1 [uA]</t>
+  </si>
+  <si>
+    <t>IBiasP2 [DAC]</t>
+  </si>
+  <si>
+    <t>χ^2</t>
   </si>
 </sst>
 </file>
@@ -148,11 +191,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,6 +218,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6758940" y="2419350"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,467 +537,680 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="5"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s">
         <v>4</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="s">
+      <c r="S3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
+      <c r="T3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="U3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
       <c r="B4">
         <v>2.4</v>
       </c>
       <c r="C4">
         <v>60</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D5" si="0">(I4+K4*O4)/B4</f>
-        <v>531.30250000000001</v>
-      </c>
-      <c r="E4" s="1">
-        <f>SQRT(J4^2+((O4*L4)^2+(P4*K4)^2)^2)/B4</f>
-        <v>25.443243223876468</v>
+      <c r="D4" s="1">
+        <f>C4*514.49/50.21</f>
+        <v>614.80581557458675</v>
+      </c>
+      <c r="E4">
+        <v>75</v>
       </c>
       <c r="F4">
-        <v>75</v>
+        <f>E4*10/80</f>
+        <v>9.375</v>
       </c>
       <c r="G4">
         <v>100</v>
       </c>
       <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
         <v>150</v>
       </c>
-      <c r="I4">
-        <v>1590</v>
-      </c>
       <c r="J4">
-        <v>27</v>
+        <v>1.5</v>
       </c>
       <c r="K4">
-        <v>-24.99</v>
+        <v>35.11</v>
       </c>
       <c r="L4">
-        <v>0.37</v>
+        <v>1366</v>
       </c>
       <c r="M4">
-        <v>18.899999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="N4">
-        <v>0.21</v>
+        <v>-24.15</v>
       </c>
       <c r="O4">
-        <v>12.6</v>
+        <v>0.09</v>
       </c>
       <c r="P4">
-        <v>0.23</v>
+        <f>N4+25</f>
+        <v>0.85000000000000142</v>
       </c>
       <c r="Q4">
-        <v>-1910</v>
+        <v>21.08</v>
       </c>
       <c r="R4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S4">
+        <v>13.43</v>
+      </c>
+      <c r="T4">
+        <v>0.06</v>
+      </c>
+      <c r="U4">
+        <v>-1746</v>
+      </c>
+      <c r="V4">
+        <v>2.1</v>
+      </c>
+      <c r="W4" s="3">
+        <f>(L4+N4*S4)/B4</f>
+        <v>434.02729166666671</v>
+      </c>
+      <c r="X4" s="1">
+        <f>SQRT(M4^2+((S4*O4)^2+(T4*N4)^2)^2)/B4</f>
+        <v>1.6623675773651738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
       <c r="B5" s="2">
         <v>2.4</v>
       </c>
       <c r="C5" s="2">
         <v>60</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>664.375</v>
-      </c>
-      <c r="E5" s="3">
-        <f>SQRT(J5^2+((O5*L5)^2+(P5*K5)^2)^2)/B5</f>
-        <v>27.906741739971295</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D11" si="0">C5*514.49/50.21</f>
+        <v>614.80581557458675</v>
+      </c>
+      <c r="E5" s="2">
         <v>160</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F11" si="1">E5*10/80</f>
+        <v>20</v>
       </c>
       <c r="G5" s="2">
         <v>100</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="2">
         <v>150</v>
       </c>
-      <c r="I5" s="2">
-        <v>2471</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="J5">
+        <v>1.5</v>
+      </c>
+      <c r="K5">
+        <v>73.239999999999995</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2346</v>
+      </c>
+      <c r="M5" s="2">
         <v>15</v>
       </c>
-      <c r="K5" s="2">
+      <c r="N5" s="2">
         <v>-25</v>
       </c>
-      <c r="L5" s="2">
+      <c r="O5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P11" si="2">N5+25</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>25</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="S5" s="2">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-3427</v>
+      </c>
+      <c r="V5" s="2">
+        <v>22</v>
+      </c>
+      <c r="W5" s="3">
+        <f>(L5+N5*S5)/B5</f>
+        <v>628.02083333333337</v>
+      </c>
+      <c r="X5" s="3">
+        <f>SQRT(M5^2+((S5*O5)^2+(T5*N5)^2)^2)/B5</f>
+        <v>17.339932053121757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>2.4</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>614.80581557458675</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>150</v>
+      </c>
+      <c r="J6">
+        <v>1.5</v>
+      </c>
+      <c r="K6">
+        <v>6.5</v>
+      </c>
+      <c r="L6">
+        <v>159</v>
+      </c>
+      <c r="M6">
+        <v>30</v>
+      </c>
+      <c r="N6">
+        <v>-5.8</v>
+      </c>
+      <c r="O6">
+        <v>1.2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>19.2</v>
+      </c>
+      <c r="Q6">
+        <v>22.74</v>
+      </c>
+      <c r="R6">
+        <v>0.21</v>
+      </c>
+      <c r="S6">
+        <v>6.3</v>
+      </c>
+      <c r="T6">
         <v>0.23</v>
       </c>
-      <c r="M5" s="2">
-        <v>24.99</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="O5" s="2">
-        <v>35.06</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>-3612</v>
-      </c>
-      <c r="R5" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6"/>
-      <c r="B6" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>60</v>
-      </c>
-      <c r="D6" s="3">
-        <f>(I6+K6*O6)/B6</f>
-        <v>54.83250000000001</v>
-      </c>
-      <c r="E6" s="3">
-        <f xml:space="preserve"> SQRT(J6^2+((O6*L6)^2+(K6*P6)^2))/B6</f>
-        <v>10.73380508959376</v>
-      </c>
-      <c r="F6" s="2">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2">
-        <v>100</v>
-      </c>
-      <c r="H6" s="2">
-        <v>150</v>
-      </c>
-      <c r="I6" s="2">
-        <v>174.3</v>
-      </c>
-      <c r="J6" s="2">
-        <v>24.73</v>
-      </c>
-      <c r="K6" s="2">
-        <v>-6.6</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M6" s="2">
-        <v>23.3</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="O6" s="2">
-        <v>6.47</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>-340</v>
-      </c>
-      <c r="R6" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U6">
+        <v>-315</v>
+      </c>
+      <c r="V6">
+        <v>38</v>
+      </c>
+      <c r="W6" s="3">
+        <f>(L6+N6*S6)/B6</f>
+        <v>51.025000000000006</v>
+      </c>
+      <c r="X6" s="3">
+        <f xml:space="preserve"> SQRT(M6^2+((S6*O6)^2+(N6*T6)^2))/B6</f>
+        <v>12.902769109553363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
       <c r="B7">
         <v>2.4</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
-      <c r="D7" s="3">
-        <f>(I7+K7*O7)/B7</f>
-        <v>51.025000000000006</v>
-      </c>
-      <c r="E7" s="3">
-        <f xml:space="preserve"> SQRT(J7^2+((O7*L7)^2+(K7*P7)^2))/B7</f>
-        <v>12.902769109553363</v>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>614.80581557458675</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>1.25</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
         <v>150</v>
       </c>
-      <c r="I7">
-        <v>159</v>
-      </c>
       <c r="J7">
-        <v>30</v>
+        <v>1.5</v>
       </c>
       <c r="K7">
-        <v>-5.8</v>
+        <v>7.14</v>
       </c>
       <c r="L7">
-        <v>1.2</v>
+        <v>80</v>
       </c>
       <c r="M7">
-        <v>22.74</v>
+        <v>13</v>
       </c>
       <c r="N7">
-        <v>0.21</v>
+        <v>-2.77</v>
       </c>
       <c r="O7">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="P7">
-        <v>0.23</v>
+        <f t="shared" si="2"/>
+        <v>22.23</v>
       </c>
       <c r="Q7">
-        <v>-315</v>
+        <v>23.9</v>
       </c>
       <c r="R7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1.9</v>
+      </c>
+      <c r="S7">
+        <v>1.97</v>
+      </c>
+      <c r="T7">
+        <v>0.13</v>
+      </c>
+      <c r="U7">
+        <v>-23.5</v>
+      </c>
+      <c r="V7">
+        <v>8.5</v>
+      </c>
+      <c r="W7" s="1">
+        <f>(L7+M7*S7)/B7</f>
+        <v>44.00416666666667</v>
+      </c>
+      <c r="X7" s="1">
+        <f>SQRT(M7^2+((S7*O7)^2+(T7*N7)^2)^2)/B7</f>
+        <v>5.5857246877000772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
       <c r="B8">
         <v>2.4</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1">
-        <f>(I8+J8*O8)/B8</f>
-        <v>193.18958333333336</v>
-      </c>
-      <c r="E8" s="1">
-        <f>SQRT(J8^2+((O8*L8)^2+(P8*K8)^2)^2)/B8</f>
-        <v>0.77974109447281725</v>
+        <f t="shared" si="0"/>
+        <v>922.20872336188006</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>9.375</v>
       </c>
       <c r="G8">
         <v>100</v>
       </c>
       <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
         <v>150</v>
-      </c>
-      <c r="I8">
-        <v>461.6</v>
       </c>
       <c r="J8">
         <v>1.5</v>
       </c>
-      <c r="K8">
-        <v>-14.88</v>
-      </c>
       <c r="L8">
-        <v>0.7</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>13.53</v>
+        <v>18</v>
       </c>
       <c r="N8">
-        <v>0.3</v>
+        <v>2.92</v>
       </c>
       <c r="O8">
-        <v>1.37</v>
+        <v>0.44</v>
       </c>
       <c r="P8">
-        <v>0.03</v>
+        <f t="shared" si="2"/>
+        <v>27.92</v>
       </c>
       <c r="Q8">
-        <v>-358.6</v>
+        <v>15.1</v>
       </c>
       <c r="R8">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3.8</v>
+      </c>
+      <c r="S8">
+        <v>10.19</v>
+      </c>
+      <c r="T8">
+        <v>0.98</v>
+      </c>
+      <c r="U8">
+        <v>-147</v>
+      </c>
+      <c r="V8">
+        <v>56</v>
+      </c>
+      <c r="W8" s="1">
+        <f>(L8+M8*S8)/B8</f>
+        <v>89.341666666666669</v>
+      </c>
+      <c r="X8" s="1">
+        <f>SQRT(M8^2+((S8*O8)^2+(T8*N8)^2)^2)/B8</f>
+        <v>13.971726440212764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
       <c r="B9">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1">
-        <f>(I9+J9*O9)/B9</f>
-        <v>89.341666666666669</v>
-      </c>
-      <c r="E9" s="1">
-        <f>SQRT(J9^2+((O9*L9)^2+(P9*K9)^2)^2)/B9</f>
-        <v>13.971726440212764</v>
+        <f t="shared" si="0"/>
+        <v>614.80581557458675</v>
+      </c>
+      <c r="E9">
+        <v>75</v>
       </c>
       <c r="F9">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>9.375</v>
       </c>
       <c r="G9">
         <v>100</v>
       </c>
       <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
         <v>150</v>
       </c>
-      <c r="I9">
-        <v>31</v>
-      </c>
       <c r="J9">
-        <v>18</v>
-      </c>
-      <c r="K9">
-        <v>2.92</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
-        <v>0.44</v>
+        <v>1234</v>
       </c>
       <c r="M9">
-        <v>15.1</v>
+        <v>5.7</v>
       </c>
       <c r="N9">
-        <v>3.8</v>
+        <v>-22.15</v>
       </c>
       <c r="O9">
-        <v>10.19</v>
+        <v>0.68</v>
       </c>
       <c r="P9">
-        <v>0.98</v>
+        <f t="shared" si="2"/>
+        <v>2.8500000000000014</v>
       </c>
       <c r="Q9">
-        <v>-147</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="R9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1.2</v>
+      </c>
+      <c r="S9">
+        <v>11.59</v>
+      </c>
+      <c r="T9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U9">
+        <v>-1519</v>
+      </c>
+      <c r="V9">
+        <v>27</v>
+      </c>
+      <c r="W9" s="1">
+        <f>(L9+M9*S9)/B9</f>
+        <v>325.01575000000003</v>
+      </c>
+      <c r="X9" s="1">
+        <f>SQRT(M9^2+((S9*O9)^2+(T9*N9)^2)^2)/B9</f>
+        <v>52.650942298130992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
       <c r="B10">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="C10">
         <v>60</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="D10" si="1">(I10+J10*O10)/B10</f>
-        <v>325.01575000000003</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" ref="E10" si="2">SQRT(J10^2+((O10*L10)^2+(P10*K10)^2)^2)/B10</f>
-        <v>52.650942298130992</v>
+        <f t="shared" si="0"/>
+        <v>614.80581557458675</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
       </c>
       <c r="F10">
+        <f t="shared" si="1"/>
+        <v>9.375</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>0.25</v>
+      </c>
+      <c r="I10">
         <v>75</v>
       </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10">
-        <v>150</v>
-      </c>
-      <c r="I10">
-        <v>1234</v>
-      </c>
       <c r="J10">
-        <v>5.7</v>
-      </c>
-      <c r="K10">
-        <v>-22.15</v>
+        <v>0.75</v>
       </c>
       <c r="L10">
-        <v>0.68</v>
+        <v>310</v>
       </c>
       <c r="M10">
-        <v>18.809999999999999</v>
+        <v>27</v>
       </c>
       <c r="N10">
-        <v>1.2</v>
+        <v>-6.82</v>
       </c>
       <c r="O10">
-        <v>11.59</v>
+        <v>0.98</v>
       </c>
       <c r="P10">
-        <v>0.55000000000000004</v>
+        <f t="shared" si="2"/>
+        <v>18.18</v>
       </c>
       <c r="Q10">
-        <v>-1519</v>
+        <v>22.5</v>
       </c>
       <c r="R10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1.4</v>
+      </c>
+      <c r="S10">
+        <v>10.27</v>
+      </c>
+      <c r="T10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U10">
+        <v>-638</v>
+      </c>
+      <c r="V10">
+        <v>64</v>
+      </c>
+      <c r="W10" s="1">
+        <f>(L10+M10*S10)/B10</f>
+        <v>244.70416666666665</v>
+      </c>
+      <c r="X10" s="1">
+        <f>SQRT(M10^2+((S10*O10)^2+(T10*N10)^2)^2)/B10</f>
+        <v>49.577634393829975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
       <c r="B11">
         <v>2.4</v>
       </c>
@@ -901,106 +1218,74 @@
         <v>60</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D11:D12" si="3">(I11+J11*O11)/B11</f>
-        <v>244.70416666666665</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" ref="E11:E12" si="4">SQRT(J11^2+((O11*L11)^2+(P11*K11)^2)^2)/B11</f>
-        <v>49.577634393829975</v>
+        <f t="shared" si="0"/>
+        <v>614.80581557458675</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
       </c>
       <c r="F11">
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>9.375</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H11">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="J11">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>-6.82</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.98</v>
+        <v>259</v>
       </c>
       <c r="M11">
-        <v>22.5</v>
+        <v>5.8</v>
       </c>
       <c r="N11">
-        <v>1.4</v>
+        <v>-8.7100000000000009</v>
       </c>
       <c r="O11">
-        <v>10.27</v>
+        <v>0.15</v>
       </c>
       <c r="P11">
-        <v>0.56000000000000005</v>
+        <f t="shared" si="2"/>
+        <v>16.29</v>
       </c>
       <c r="Q11">
-        <v>-638</v>
+        <v>21.09</v>
       </c>
       <c r="R11">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>2.4</v>
-      </c>
-      <c r="C12">
-        <v>60</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="S11">
+        <v>10.59</v>
+      </c>
+      <c r="T11">
+        <v>0.21</v>
+      </c>
+      <c r="U11">
+        <v>-493</v>
+      </c>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11" s="1">
+        <f>(L11+M11*S11)/B11</f>
         <v>133.50916666666669</v>
       </c>
-      <c r="E12" s="1">
-        <f t="shared" si="4"/>
+      <c r="X11" s="1">
+        <f>SQRT(M11^2+((S11*O11)^2+(T11*N11)^2)^2)/B11</f>
         <v>3.4380541394259496</v>
       </c>
-      <c r="F12">
-        <v>75</v>
-      </c>
-      <c r="G12">
-        <v>200</v>
-      </c>
-      <c r="H12">
-        <v>300</v>
-      </c>
-      <c r="I12">
-        <v>259</v>
-      </c>
-      <c r="J12">
-        <v>5.8</v>
-      </c>
-      <c r="K12">
-        <v>-8.7100000000000009</v>
-      </c>
-      <c r="L12">
-        <v>0.15</v>
-      </c>
-      <c r="M12">
-        <v>21.09</v>
-      </c>
-      <c r="N12">
-        <v>0.31</v>
-      </c>
-      <c r="O12">
-        <v>10.59</v>
-      </c>
-      <c r="P12">
-        <v>0.21</v>
-      </c>
-      <c r="Q12">
-        <v>-493</v>
-      </c>
-      <c r="R12">
-        <v>10</v>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
@@ -1020,16 +1305,29 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LogBooks/Tabelle/Tabella_parametri.xlsx
+++ b/LogBooks/Tabelle/Tabella_parametri.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>tabella riassuntiva dei valori dei parametri</t>
   </si>
@@ -48,35 +48,9 @@
     <t xml:space="preserve">P[0] </t>
   </si>
   <si>
-    <t>P[0] = Vth*Cf - If*t0</t>
-  </si>
-  <si>
-    <t>P[1] = t0</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">P[2] = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>τ</t>
-    </r>
-  </si>
-  <si>
-    <t>P[3] = If</t>
-  </si>
-  <si>
     <t>P[4]</t>
   </si>
   <si>
-    <t>P[4] = Costante</t>
-  </si>
-  <si>
     <t>eVth [mV]</t>
   </si>
   <si>
@@ -147,6 +121,42 @@
   </si>
   <si>
     <t>χ^2</t>
+  </si>
+  <si>
+    <t>P[3] [nA]</t>
+  </si>
+  <si>
+    <t>eP[3] [nA]</t>
+  </si>
+  <si>
+    <t>20 MHz</t>
+  </si>
+  <si>
+    <t>pixel 1</t>
+  </si>
+  <si>
+    <t>Vth*Cf - If*t0</t>
+  </si>
+  <si>
+    <t>t0</t>
+  </si>
+  <si>
+    <t>τ</t>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>Costante</t>
+  </si>
+  <si>
+    <t>40 MHz</t>
+  </si>
+  <si>
+    <t>χ^2 ridotto</t>
+  </si>
+  <si>
+    <t>DoF</t>
   </si>
 </sst>
 </file>
@@ -156,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,20 +176,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -187,24 +211,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -226,18 +364,67 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6758940" y="2419350"/>
+          <a:off x="5958840" y="4065270"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5958840" y="4248150"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -537,10 +724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,766 +741,1437 @@
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" style="20" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="14"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="18"/>
+      <c r="U3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="18"/>
+      <c r="W3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5" t="s">
+      <c r="B6" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:D13" si="0">C6*514.49/50.21</f>
+        <v>614.80581557458675</v>
+      </c>
+      <c r="E6" s="2">
+        <v>75</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:F13" si="1">E6*10/80</f>
+        <v>9.375</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>150</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K6" s="12">
+        <v>35.11</v>
+      </c>
+      <c r="L6" s="24">
+        <v>12</v>
+      </c>
+      <c r="M6" s="12">
+        <f>K6/L6</f>
+        <v>2.9258333333333333</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1366</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="P6" s="2">
+        <v>-24.15</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="R6" s="2">
+        <f>P6+25</f>
+        <v>0.85000000000000142</v>
+      </c>
+      <c r="S6" s="2">
+        <v>21.08</v>
+      </c>
+      <c r="T6" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U6" s="2">
+        <v>13.43</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="W6" s="2">
+        <v>-1746</v>
+      </c>
+      <c r="X6" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="Y6" s="5">
+        <f>(N6+P6*U6)/B6</f>
+        <v>434.02729166666671</v>
+      </c>
+      <c r="Z6" s="4">
+        <f>SQRT(O6^2+((U6*Q6)^2+(V6*P6)^2)^2)/B6</f>
+        <v>1.6623675773651738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="5"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
+      <c r="B7" s="3">
         <v>2.4</v>
       </c>
-      <c r="C4">
+      <c r="C7" s="3">
         <v>60</v>
       </c>
-      <c r="D4" s="1">
-        <f>C4*514.49/50.21</f>
-        <v>614.80581557458675</v>
-      </c>
-      <c r="E4">
-        <v>75</v>
-      </c>
-      <c r="F4">
-        <f>E4*10/80</f>
-        <v>9.375</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-      <c r="I4">
-        <v>150</v>
-      </c>
-      <c r="J4">
-        <v>1.5</v>
-      </c>
-      <c r="K4">
-        <v>35.11</v>
-      </c>
-      <c r="L4">
-        <v>1366</v>
-      </c>
-      <c r="M4">
-        <v>1.8</v>
-      </c>
-      <c r="N4">
-        <v>-24.15</v>
-      </c>
-      <c r="O4">
-        <v>0.09</v>
-      </c>
-      <c r="P4">
-        <f>N4+25</f>
-        <v>0.85000000000000142</v>
-      </c>
-      <c r="Q4">
-        <v>21.08</v>
-      </c>
-      <c r="R4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="S4">
-        <v>13.43</v>
-      </c>
-      <c r="T4">
-        <v>0.06</v>
-      </c>
-      <c r="U4">
-        <v>-1746</v>
-      </c>
-      <c r="V4">
-        <v>2.1</v>
-      </c>
-      <c r="W4" s="3">
-        <f>(L4+N4*S4)/B4</f>
-        <v>434.02729166666671</v>
-      </c>
-      <c r="X4" s="1">
-        <f>SQRT(M4^2+((S4*O4)^2+(T4*N4)^2)^2)/B4</f>
-        <v>1.6623675773651738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D11" si="0">C5*514.49/50.21</f>
-        <v>614.80581557458675</v>
-      </c>
-      <c r="E5" s="2">
-        <v>160</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F11" si="1">E5*10/80</f>
-        <v>20</v>
-      </c>
-      <c r="G5" s="2">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="2">
-        <v>150</v>
-      </c>
-      <c r="J5">
-        <v>1.5</v>
-      </c>
-      <c r="K5">
-        <v>73.239999999999995</v>
-      </c>
-      <c r="L5" s="2">
-        <v>2346</v>
-      </c>
-      <c r="M5" s="2">
-        <v>15</v>
-      </c>
-      <c r="N5" s="2">
-        <v>-25</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ref="P5:P11" si="2">N5+25</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>25</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="S5" s="2">
-        <v>33.549999999999997</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="U5" s="2">
-        <v>-3427</v>
-      </c>
-      <c r="V5" s="2">
-        <v>22</v>
-      </c>
-      <c r="W5" s="3">
-        <f>(L5+N5*S5)/B5</f>
-        <v>628.02083333333337</v>
-      </c>
-      <c r="X5" s="3">
-        <f>SQRT(M5^2+((S5*O5)^2+(T5*N5)^2)^2)/B5</f>
-        <v>17.339932053121757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>2.4</v>
-      </c>
-      <c r="C6">
-        <v>60</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>614.80581557458675</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="3">
+        <v>160</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G7" s="3">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>150</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="12">
+        <v>73.239999999999995</v>
+      </c>
+      <c r="L7" s="24">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12">
+        <f t="shared" ref="M7:M26" si="2">K7/L7</f>
+        <v>6.1033333333333326</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2346</v>
+      </c>
+      <c r="O7" s="3">
+        <v>15</v>
+      </c>
+      <c r="P7" s="3">
+        <v>-25</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R7" s="2">
+        <f>P7+25</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>25</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="U7" s="3">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="W7" s="3">
+        <v>-3427</v>
+      </c>
+      <c r="X7" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y7" s="5">
+        <f>(N7+P7*U7)/B7</f>
+        <v>628.02083333333337</v>
+      </c>
+      <c r="Z7" s="5">
+        <f>SQRT(O7^2+((U7*Q7)^2+(V7*P7)^2)^2)/B7</f>
+        <v>17.339932053121757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>614.80581557458675</v>
+      </c>
+      <c r="E8" s="2">
         <v>40</v>
       </c>
-      <c r="F6">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G8" s="2">
         <v>100</v>
       </c>
-      <c r="H6">
+      <c r="H8" s="2">
         <v>0.5</v>
       </c>
-      <c r="I6">
+      <c r="I8" s="2">
         <v>150</v>
       </c>
-      <c r="J6">
+      <c r="J8" s="2">
         <v>1.5</v>
       </c>
-      <c r="K6">
+      <c r="K8" s="12">
         <v>6.5</v>
       </c>
-      <c r="L6">
+      <c r="L8" s="24">
+        <v>12</v>
+      </c>
+      <c r="M8" s="12">
+        <f t="shared" si="2"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N8" s="2">
         <v>159</v>
       </c>
-      <c r="M6">
+      <c r="O8" s="2">
         <v>30</v>
       </c>
-      <c r="N6">
+      <c r="P8" s="2">
         <v>-5.8</v>
       </c>
-      <c r="O6">
+      <c r="Q8" s="2">
         <v>1.2</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="2"/>
+      <c r="R8" s="2">
+        <f>P8+25</f>
         <v>19.2</v>
       </c>
-      <c r="Q6">
+      <c r="S8" s="2">
         <v>22.74</v>
       </c>
-      <c r="R6">
+      <c r="T8" s="2">
         <v>0.21</v>
       </c>
-      <c r="S6">
+      <c r="U8" s="2">
         <v>6.3</v>
       </c>
-      <c r="T6">
+      <c r="V8" s="2">
         <v>0.23</v>
       </c>
-      <c r="U6">
+      <c r="W8" s="2">
         <v>-315</v>
       </c>
-      <c r="V6">
+      <c r="X8" s="2">
         <v>38</v>
       </c>
-      <c r="W6" s="3">
-        <f>(L6+N6*S6)/B6</f>
+      <c r="Y8" s="5">
+        <f>(N8+P8*U8)/B8</f>
         <v>51.025000000000006</v>
       </c>
-      <c r="X6" s="3">
-        <f xml:space="preserve"> SQRT(M6^2+((S6*O6)^2+(N6*T6)^2))/B6</f>
+      <c r="Z8" s="5">
+        <f xml:space="preserve"> SQRT(O8^2+((U8*Q8)^2+(P8*V8)^2))/B8</f>
         <v>12.902769109553363</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
         <v>2.4</v>
       </c>
-      <c r="C7">
+      <c r="C9" s="2">
         <v>60</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>614.80581557458675</v>
       </c>
-      <c r="E7">
+      <c r="E9" s="2">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="G7">
+      <c r="G9" s="2">
         <v>100</v>
       </c>
-      <c r="H7">
+      <c r="H9" s="2">
         <v>0.5</v>
       </c>
-      <c r="I7">
+      <c r="I9" s="2">
         <v>150</v>
       </c>
-      <c r="J7">
+      <c r="J9" s="2">
         <v>1.5</v>
       </c>
-      <c r="K7">
+      <c r="K9" s="12">
         <v>7.14</v>
       </c>
-      <c r="L7">
+      <c r="L9" s="24">
+        <v>12</v>
+      </c>
+      <c r="M9" s="12">
+        <f t="shared" si="2"/>
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="N9" s="2">
         <v>80</v>
       </c>
-      <c r="M7">
+      <c r="O9" s="2">
         <v>13</v>
       </c>
-      <c r="N7">
+      <c r="P9" s="2">
         <v>-2.77</v>
       </c>
-      <c r="O7">
+      <c r="Q9" s="2">
         <v>0.9</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="2"/>
+      <c r="R9" s="2">
+        <f>P9+25</f>
         <v>22.23</v>
       </c>
-      <c r="Q7">
+      <c r="S9" s="2">
         <v>23.9</v>
       </c>
-      <c r="R7">
+      <c r="T9" s="2">
         <v>1.9</v>
       </c>
-      <c r="S7">
+      <c r="U9" s="2">
         <v>1.97</v>
       </c>
-      <c r="T7">
+      <c r="V9" s="2">
         <v>0.13</v>
       </c>
-      <c r="U7">
+      <c r="W9" s="2">
         <v>-23.5</v>
       </c>
-      <c r="V7">
+      <c r="X9" s="2">
         <v>8.5</v>
       </c>
-      <c r="W7" s="1">
-        <f>(L7+M7*S7)/B7</f>
+      <c r="Y9" s="4">
+        <f>(N9+O9*U9)/B9</f>
         <v>44.00416666666667</v>
       </c>
-      <c r="X7" s="1">
-        <f>SQRT(M7^2+((S7*O7)^2+(T7*N7)^2)^2)/B7</f>
+      <c r="Z9" s="4">
+        <f>SQRT(O9^2+((U9*Q9)^2+(V9*P9)^2)^2)/B9</f>
         <v>5.5857246877000772</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
         <v>2.4</v>
       </c>
-      <c r="C8">
+      <c r="C10" s="2">
         <v>90</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>922.20872336188006</v>
       </c>
-      <c r="E8">
+      <c r="E10" s="2">
         <v>75</v>
       </c>
-      <c r="F8">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>9.375</v>
       </c>
-      <c r="G8">
+      <c r="G10" s="2">
         <v>100</v>
       </c>
-      <c r="H8">
+      <c r="H10" s="2">
         <v>0.5</v>
       </c>
-      <c r="I8">
+      <c r="I10" s="2">
         <v>150</v>
       </c>
-      <c r="J8">
+      <c r="J10" s="2">
         <v>1.5</v>
       </c>
-      <c r="L8">
+      <c r="K10" s="12">
+        <v>119.7</v>
+      </c>
+      <c r="L10" s="24">
+        <v>11</v>
+      </c>
+      <c r="M10" s="12">
+        <f t="shared" si="2"/>
+        <v>10.881818181818183</v>
+      </c>
+      <c r="N10" s="2">
         <v>31</v>
       </c>
-      <c r="M8">
+      <c r="O10" s="2">
         <v>18</v>
       </c>
-      <c r="N8">
+      <c r="P10" s="2">
         <v>2.92</v>
       </c>
-      <c r="O8">
+      <c r="Q10" s="2">
         <v>0.44</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
-        <v>27.92</v>
-      </c>
-      <c r="Q8">
+      <c r="R10" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="S10" s="2">
         <v>15.1</v>
       </c>
-      <c r="R8">
+      <c r="T10" s="2">
         <v>3.8</v>
       </c>
-      <c r="S8">
+      <c r="U10" s="2">
         <v>10.19</v>
       </c>
-      <c r="T8">
+      <c r="V10" s="2">
         <v>0.98</v>
       </c>
-      <c r="U8">
+      <c r="W10" s="2">
         <v>-147</v>
       </c>
-      <c r="V8">
+      <c r="X10" s="2">
         <v>56</v>
       </c>
-      <c r="W8" s="1">
-        <f>(L8+M8*S8)/B8</f>
+      <c r="Y10" s="4">
+        <f>(N10+O10*U10)/B10</f>
         <v>89.341666666666669</v>
       </c>
-      <c r="X8" s="1">
-        <f>SQRT(M8^2+((S8*O8)^2+(T8*N8)^2)^2)/B8</f>
+      <c r="Z10" s="4">
+        <f>SQRT(O10^2+((U10*Q10)^2+(V10*P10)^2)^2)/B10</f>
         <v>13.971726440212764</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C11" s="2">
         <v>60</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>614.80581557458675</v>
       </c>
-      <c r="E9">
+      <c r="E11" s="2">
         <v>75</v>
       </c>
-      <c r="F9">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>9.375</v>
       </c>
-      <c r="G9">
+      <c r="G11" s="2">
         <v>100</v>
       </c>
-      <c r="H9">
+      <c r="H11" s="2">
         <v>0.5</v>
       </c>
-      <c r="I9">
+      <c r="I11" s="2">
         <v>150</v>
       </c>
-      <c r="J9">
+      <c r="J11" s="2">
         <v>1.5</v>
       </c>
-      <c r="L9">
+      <c r="K11" s="12">
+        <v>16.88</v>
+      </c>
+      <c r="L11" s="24">
+        <v>12</v>
+      </c>
+      <c r="M11" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4066666666666665</v>
+      </c>
+      <c r="N11" s="2">
         <v>1234</v>
       </c>
-      <c r="M9">
+      <c r="O11" s="2">
         <v>5.7</v>
       </c>
-      <c r="N9">
+      <c r="P11" s="2">
         <v>-22.15</v>
       </c>
-      <c r="O9">
+      <c r="Q11" s="2">
         <v>0.68</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
+      <c r="R11" s="2">
+        <f>P11+25</f>
         <v>2.8500000000000014</v>
       </c>
-      <c r="Q9">
+      <c r="S11" s="2">
         <v>18.809999999999999</v>
       </c>
-      <c r="R9">
+      <c r="T11" s="2">
         <v>1.2</v>
       </c>
-      <c r="S9">
+      <c r="U11" s="2">
         <v>11.59</v>
       </c>
-      <c r="T9">
+      <c r="V11" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U9">
+      <c r="W11" s="2">
         <v>-1519</v>
       </c>
-      <c r="V9">
+      <c r="X11" s="2">
         <v>27</v>
       </c>
-      <c r="W9" s="1">
-        <f>(L9+M9*S9)/B9</f>
+      <c r="Y11" s="4">
+        <f>(N11+O11*U11)/B11</f>
         <v>325.01575000000003</v>
       </c>
-      <c r="X9" s="1">
-        <f>SQRT(M9^2+((S9*O9)^2+(T9*N9)^2)^2)/B9</f>
+      <c r="Z11" s="4">
+        <f>SQRT(O11^2+((U11*Q11)^2+(V11*P11)^2)^2)/B11</f>
         <v>52.650942298130992</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
         <v>2.4</v>
       </c>
-      <c r="C10">
+      <c r="C12" s="2">
         <v>60</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D12" s="4">
         <f t="shared" si="0"/>
         <v>614.80581557458675</v>
       </c>
-      <c r="E10">
+      <c r="E12" s="2">
         <v>75</v>
       </c>
-      <c r="F10">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>9.375</v>
       </c>
-      <c r="G10">
+      <c r="G12" s="2">
         <v>50</v>
       </c>
-      <c r="H10">
+      <c r="H12" s="2">
         <v>0.25</v>
       </c>
-      <c r="I10">
+      <c r="I12" s="2">
         <v>75</v>
       </c>
-      <c r="J10">
+      <c r="J12" s="2">
         <v>0.75</v>
       </c>
-      <c r="L10">
+      <c r="K12" s="12">
+        <v>29.53</v>
+      </c>
+      <c r="L12" s="24">
+        <v>12</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="2"/>
+        <v>2.4608333333333334</v>
+      </c>
+      <c r="N12" s="2">
         <v>310</v>
       </c>
-      <c r="M10">
+      <c r="O12" s="2">
         <v>27</v>
       </c>
-      <c r="N10">
+      <c r="P12" s="2">
         <v>-6.82</v>
       </c>
-      <c r="O10">
+      <c r="Q12" s="2">
         <v>0.98</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="2"/>
+      <c r="R12" s="2">
+        <f>P12+25</f>
         <v>18.18</v>
       </c>
-      <c r="Q10">
+      <c r="S12" s="2">
         <v>22.5</v>
       </c>
-      <c r="R10">
+      <c r="T12" s="2">
         <v>1.4</v>
       </c>
-      <c r="S10">
+      <c r="U12" s="2">
         <v>10.27</v>
       </c>
-      <c r="T10">
+      <c r="V12" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="U10">
+      <c r="W12" s="2">
         <v>-638</v>
       </c>
-      <c r="V10">
+      <c r="X12" s="2">
         <v>64</v>
       </c>
-      <c r="W10" s="1">
-        <f>(L10+M10*S10)/B10</f>
+      <c r="Y12" s="4">
+        <f>(N12+O12*U12)/B12</f>
         <v>244.70416666666665</v>
       </c>
-      <c r="X10" s="1">
-        <f>SQRT(M10^2+((S10*O10)^2+(T10*N10)^2)^2)/B10</f>
+      <c r="Z12" s="4">
+        <f>SQRT(O12^2+((U12*Q12)^2+(V12*P12)^2)^2)/B12</f>
         <v>49.577634393829975</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
         <v>2.4</v>
       </c>
-      <c r="C11">
+      <c r="C13" s="2">
         <v>60</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>614.80581557458675</v>
       </c>
-      <c r="E11">
+      <c r="E13" s="2">
         <v>75</v>
       </c>
-      <c r="F11">
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>9.375</v>
       </c>
-      <c r="G11">
+      <c r="G13" s="2">
         <v>200</v>
       </c>
-      <c r="H11">
+      <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="I13" s="2">
         <v>300</v>
       </c>
-      <c r="J11">
+      <c r="J13" s="2">
         <v>3</v>
       </c>
-      <c r="L11">
+      <c r="K13" s="12">
+        <v>61.51</v>
+      </c>
+      <c r="L13" s="24">
+        <v>10</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="2"/>
+        <v>6.1509999999999998</v>
+      </c>
+      <c r="N13" s="2">
         <v>259</v>
       </c>
-      <c r="M11">
+      <c r="O13" s="2">
         <v>5.8</v>
       </c>
-      <c r="N11">
+      <c r="P13" s="2">
         <v>-8.7100000000000009</v>
       </c>
-      <c r="O11">
+      <c r="Q13" s="2">
         <v>0.15</v>
       </c>
-      <c r="P11">
+      <c r="R13" s="2">
+        <f>P13+25</f>
+        <v>16.29</v>
+      </c>
+      <c r="S13" s="2">
+        <v>21.09</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="U13" s="2">
+        <v>10.59</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="W13" s="2">
+        <v>-493</v>
+      </c>
+      <c r="X13" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>(N13+O13*U13)/B13</f>
+        <v>133.50916666666669</v>
+      </c>
+      <c r="Z13" s="4">
+        <f>SQRT(O13^2+((U13*Q13)^2+(V13*P13)^2)^2)/B13</f>
+        <v>3.4380541394259496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="M16" s="13"/>
+      <c r="R16" s="6"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>60</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:D25" si="3">C17*514.49/50.21</f>
+        <v>614.80581557458675</v>
+      </c>
+      <c r="E17" s="2">
+        <v>75</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" ref="F17:F25" si="4">E17*10/80</f>
+        <v>9.375</v>
+      </c>
+      <c r="G17" s="2">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>150</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K17" s="12">
+        <f>150.5</f>
+        <v>150.5</v>
+      </c>
+      <c r="L17" s="24">
+        <v>9</v>
+      </c>
+      <c r="M17" s="12">
         <f t="shared" si="2"/>
-        <v>16.29</v>
-      </c>
-      <c r="Q11">
-        <v>21.09</v>
-      </c>
-      <c r="R11">
-        <v>0.31</v>
-      </c>
-      <c r="S11">
-        <v>10.59</v>
-      </c>
-      <c r="T11">
-        <v>0.21</v>
-      </c>
-      <c r="U11">
-        <v>-493</v>
-      </c>
-      <c r="V11">
-        <v>10</v>
-      </c>
-      <c r="W11" s="1">
-        <f>(L11+M11*S11)/B11</f>
-        <v>133.50916666666669</v>
-      </c>
-      <c r="X11" s="1">
-        <f>SQRT(M11^2+((S11*O11)^2+(T11*N11)^2)^2)/B11</f>
-        <v>3.4380541394259496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>12</v>
+        <v>16.722222222222221</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1015</v>
+      </c>
+      <c r="O17" s="2">
+        <v>40.71</v>
+      </c>
+      <c r="P17" s="2">
+        <v>-24.92</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="R17" s="2">
+        <f>P17+50</f>
+        <v>25.08</v>
+      </c>
+      <c r="S17" s="3">
+        <v>24.51</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="U17" s="3">
+        <v>15.44</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="W17" s="3">
+        <v>-1440</v>
+      </c>
+      <c r="X17" s="3">
+        <v>33</v>
+      </c>
+      <c r="Y17" s="4">
+        <f t="shared" ref="Y17:Y26" si="5">(N17+O17*U17)/B17</f>
+        <v>684.8176666666667</v>
+      </c>
+      <c r="Z17" s="4">
+        <f t="shared" ref="Z17:Z26" si="6">SQRT(O17^2+((U17*Q17)^2+(V17*P17)^2)^2)/B17</f>
+        <v>34.781541995157944</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>60</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="3"/>
+        <v>614.80581557458675</v>
+      </c>
+      <c r="E18" s="2">
+        <v>75</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="4"/>
+        <v>9.375</v>
+      </c>
+      <c r="G18" s="2">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>150</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K18" s="12">
+        <f>84</f>
+        <v>84</v>
+      </c>
+      <c r="L18" s="24">
+        <v>11</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="2"/>
+        <v>7.6363636363636367</v>
+      </c>
+      <c r="N18" s="2">
+        <v>27630</v>
+      </c>
+      <c r="O18" s="2">
+        <v>82</v>
+      </c>
+      <c r="P18" s="2">
+        <v>-74.64</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="R18" s="8">
+        <f>P18+50</f>
+        <v>-24.64</v>
+      </c>
+      <c r="S18" s="3">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="U18" s="3">
+        <v>11.81</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-27850</v>
+      </c>
+      <c r="X18" s="3">
+        <v>82</v>
+      </c>
+      <c r="Y18" s="4">
+        <f t="shared" si="5"/>
+        <v>11916.008333333333</v>
+      </c>
+      <c r="Z18" s="4">
+        <f t="shared" si="6"/>
+        <v>94.865288965340255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z19" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z20" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z21" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z22" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z23" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z24" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z26" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="L2:V2"/>
-    <mergeCell ref="W2:X2"/>
+  <mergeCells count="23">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -1322,12 +2181,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2">
+        <f>B3*10/80</f>
+        <v>9.375</v>
+      </c>
+      <c r="D3" s="2">
+        <v>13.43</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2">
+        <f>B4*10/80</f>
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <f>B5*10/80</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <f>B6*10/80</f>
+        <v>1.25</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>